--- a/contratos/contratos-5-2019.xlsx
+++ b/contratos/contratos-5-2019.xlsx
@@ -985,7 +985,7 @@
     <t>UGON VICTOR FRANCO ALI</t>
   </si>
   <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>VALDUNCIEL RODOLFO RENE</t>
@@ -1030,7 +1030,7 @@
     <t>FRANCESCHINI FRANCISCO MANUEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1249,7 +1249,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1729,7 +1729,7 @@
     <t>MABSER</t>
   </si>
   <si>
-    <t>CLERICE, MIGUEL ANGEL</t>
+    <t>CLERICE. MIGUEL ANGEL</t>
   </si>
   <si>
     <t>OCA</t>
@@ -1828,766 +1828,766 @@
     <t>110</t>
   </si>
   <si>
-    <t>126.600,00</t>
-  </si>
-  <si>
-    <t>50.400,00</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>20.800,00</t>
-  </si>
-  <si>
-    <t>76.232,50</t>
-  </si>
-  <si>
-    <t>298,00</t>
-  </si>
-  <si>
-    <t>2.375,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>387.000,00</t>
-  </si>
-  <si>
-    <t>263.828,90</t>
-  </si>
-  <si>
-    <t>82.500,00</t>
-  </si>
-  <si>
-    <t>809.000,00</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>958.296,75</t>
-  </si>
-  <si>
-    <t>1.312.993,97</t>
-  </si>
-  <si>
-    <t>103.712,00</t>
-  </si>
-  <si>
-    <t>102.300,00</t>
-  </si>
-  <si>
-    <t>98.983,80</t>
-  </si>
-  <si>
-    <t>222.941,72</t>
-  </si>
-  <si>
-    <t>192.081,69</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>3.084,00</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>19.291,60</t>
-  </si>
-  <si>
-    <t>148.562,96</t>
-  </si>
-  <si>
-    <t>11.239,00</t>
-  </si>
-  <si>
-    <t>84.007,16</t>
-  </si>
-  <si>
-    <t>53.275,00</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>20.960,00</t>
-  </si>
-  <si>
-    <t>42.000,32</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>6.880,00</t>
-  </si>
-  <si>
-    <t>1.367,98</t>
-  </si>
-  <si>
-    <t>296.891,10</t>
-  </si>
-  <si>
-    <t>1.020,22</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>407,00</t>
-  </si>
-  <si>
-    <t>403.148,47</t>
-  </si>
-  <si>
-    <t>333.254,90</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>25.917,66</t>
-  </si>
-  <si>
-    <t>236.100,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>684.400,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>341.204,96</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>1.998.716,51</t>
-  </si>
-  <si>
-    <t>13.325,00</t>
-  </si>
-  <si>
-    <t>7.452,14</t>
-  </si>
-  <si>
-    <t>1.366,25</t>
-  </si>
-  <si>
-    <t>22.343,00</t>
-  </si>
-  <si>
-    <t>97.881,53</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>16.205,86</t>
-  </si>
-  <si>
-    <t>312,20</t>
-  </si>
-  <si>
-    <t>575,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>12.971,74</t>
-  </si>
-  <si>
-    <t>2.376,60</t>
-  </si>
-  <si>
-    <t>958,00</t>
-  </si>
-  <si>
-    <t>3.401,08</t>
-  </si>
-  <si>
-    <t>9.659,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>10.300,00</t>
-  </si>
-  <si>
-    <t>3.435,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>14.182,40</t>
-  </si>
-  <si>
-    <t>3.529,75</t>
-  </si>
-  <si>
-    <t>9.611,10</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>1.442,72</t>
-  </si>
-  <si>
-    <t>3.578,67</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>110.927,00</t>
-  </si>
-  <si>
-    <t>19.515,53</t>
-  </si>
-  <si>
-    <t>48.100,00</t>
-  </si>
-  <si>
-    <t>35.600,00</t>
-  </si>
-  <si>
-    <t>60.400,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>73.500,00</t>
-  </si>
-  <si>
-    <t>87.500,00</t>
-  </si>
-  <si>
-    <t>4.527,15</t>
-  </si>
-  <si>
-    <t>352,00</t>
-  </si>
-  <si>
-    <t>5.358,46</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>12.535,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>40.260,00</t>
-  </si>
-  <si>
-    <t>151.500,00</t>
-  </si>
-  <si>
-    <t>22.300,00</t>
-  </si>
-  <si>
-    <t>4.480,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>45.216,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>4.520,00</t>
-  </si>
-  <si>
-    <t>6.321,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>23,04</t>
-  </si>
-  <si>
-    <t>31.652,08</t>
-  </si>
-  <si>
-    <t>284,83</t>
-  </si>
-  <si>
-    <t>39.587,19</t>
-  </si>
-  <si>
-    <t>23.500,46</t>
-  </si>
-  <si>
-    <t>215,06</t>
-  </si>
-  <si>
-    <t>849,00</t>
-  </si>
-  <si>
-    <t>5.026,02</t>
-  </si>
-  <si>
-    <t>17.405,00</t>
-  </si>
-  <si>
-    <t>13.999,00</t>
-  </si>
-  <si>
-    <t>1.348,50</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>2.769,00</t>
-  </si>
-  <si>
-    <t>8.220,00</t>
-  </si>
-  <si>
-    <t>12.129,00</t>
-  </si>
-  <si>
-    <t>10.395,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>73.584,00</t>
-  </si>
-  <si>
-    <t>15.673,00</t>
-  </si>
-  <si>
-    <t>95.211,92</t>
-  </si>
-  <si>
-    <t>2.199,00</t>
-  </si>
-  <si>
-    <t>2.680,00</t>
-  </si>
-  <si>
-    <t>13.569,96</t>
-  </si>
-  <si>
-    <t>1.491,70</t>
-  </si>
-  <si>
-    <t>68.685,00</t>
-  </si>
-  <si>
-    <t>1.677,50</t>
-  </si>
-  <si>
-    <t>4.160,00</t>
-  </si>
-  <si>
-    <t>23.552,00</t>
-  </si>
-  <si>
-    <t>14.080,00</t>
-  </si>
-  <si>
-    <t>69.641,19</t>
-  </si>
-  <si>
-    <t>1.810,40</t>
-  </si>
-  <si>
-    <t>325.184,00</t>
-  </si>
-  <si>
-    <t>58.700,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>15.800,00</t>
-  </si>
-  <si>
-    <t>9.368,00</t>
-  </si>
-  <si>
-    <t>126.280,00</t>
-  </si>
-  <si>
-    <t>10.848,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>92.500,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>99.900,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>161.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>18.811,49</t>
-  </si>
-  <si>
-    <t>20.126,00</t>
-  </si>
-  <si>
-    <t>4.387,21</t>
-  </si>
-  <si>
-    <t>144.890,00</t>
-  </si>
-  <si>
-    <t>8.245,00</t>
-  </si>
-  <si>
-    <t>552,64</t>
-  </si>
-  <si>
-    <t>1.380,50</t>
-  </si>
-  <si>
-    <t>1.191,28</t>
-  </si>
-  <si>
-    <t>12.485,00</t>
-  </si>
-  <si>
-    <t>35.805,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>113.875,55</t>
-  </si>
-  <si>
-    <t>4.810,00</t>
-  </si>
-  <si>
-    <t>37.300,00</t>
-  </si>
-  <si>
-    <t>57.500,00</t>
-  </si>
-  <si>
-    <t>25.800,00</t>
-  </si>
-  <si>
-    <t>55.686,30</t>
-  </si>
-  <si>
-    <t>12.400,00</t>
-  </si>
-  <si>
-    <t>8.900,00</t>
-  </si>
-  <si>
-    <t>2.527,24</t>
-  </si>
-  <si>
-    <t>3.030,02</t>
-  </si>
-  <si>
-    <t>50.390,00</t>
-  </si>
-  <si>
-    <t>21.100,00</t>
-  </si>
-  <si>
-    <t>879,96</t>
-  </si>
-  <si>
-    <t>1.510,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>13.560,00</t>
-  </si>
-  <si>
-    <t>31.160,17</t>
-  </si>
-  <si>
-    <t>23.270,00</t>
-  </si>
-  <si>
-    <t>4.890,00</t>
-  </si>
-  <si>
-    <t>3.006,02</t>
-  </si>
-  <si>
-    <t>2.871,00</t>
-  </si>
-  <si>
-    <t>2.147,28</t>
-  </si>
-  <si>
-    <t>857,80</t>
-  </si>
-  <si>
-    <t>372.680,00</t>
-  </si>
-  <si>
-    <t>1.019,96</t>
-  </si>
-  <si>
-    <t>569,77</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>33.936,27</t>
-  </si>
-  <si>
-    <t>10.817,93</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>79.500,00</t>
-  </si>
-  <si>
-    <t>42.831,00</t>
-  </si>
-  <si>
-    <t>6.024.925,03</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>111.800,00</t>
-  </si>
-  <si>
-    <t>61.180,00</t>
-  </si>
-  <si>
-    <t>114.800,00</t>
-  </si>
-  <si>
-    <t>70.889,00</t>
-  </si>
-  <si>
-    <t>3.965.000,00</t>
-  </si>
-  <si>
-    <t>241.000,00</t>
-  </si>
-  <si>
-    <t>296.700,00</t>
-  </si>
-  <si>
-    <t>245.950,00</t>
-  </si>
-  <si>
-    <t>451.000,00</t>
-  </si>
-  <si>
-    <t>573.450,00</t>
-  </si>
-  <si>
-    <t>513.000,00</t>
-  </si>
-  <si>
-    <t>306.700,00</t>
-  </si>
-  <si>
-    <t>482.000,00</t>
-  </si>
-  <si>
-    <t>419.200,00</t>
-  </si>
-  <si>
-    <t>452.200,00</t>
-  </si>
-  <si>
-    <t>697.450,00</t>
-  </si>
-  <si>
-    <t>739.100,00</t>
-  </si>
-  <si>
-    <t>247.350,00</t>
-  </si>
-  <si>
-    <t>205.702,00</t>
-  </si>
-  <si>
-    <t>763.049,41</t>
-  </si>
-  <si>
-    <t>1.534.876,54</t>
-  </si>
-  <si>
-    <t>459.000,00</t>
-  </si>
-  <si>
-    <t>106.590,00</t>
-  </si>
-  <si>
-    <t>2.163.489,78</t>
-  </si>
-  <si>
-    <t>1.399.250,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>176.500,00</t>
-  </si>
-  <si>
-    <t>5.917,94</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>1.090,00</t>
-  </si>
-  <si>
-    <t>318.170,00</t>
-  </si>
-  <si>
-    <t>335.000,00</t>
+    <t>126600.00</t>
+  </si>
+  <si>
+    <t>50400.00</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>20800.00</t>
+  </si>
+  <si>
+    <t>76232.50</t>
+  </si>
+  <si>
+    <t>298.00</t>
+  </si>
+  <si>
+    <t>2375.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>387000.00</t>
+  </si>
+  <si>
+    <t>263828.90</t>
+  </si>
+  <si>
+    <t>82500.00</t>
+  </si>
+  <si>
+    <t>809000.00</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>958296.75</t>
+  </si>
+  <si>
+    <t>1312993.97</t>
+  </si>
+  <si>
+    <t>103712.00</t>
+  </si>
+  <si>
+    <t>102300.00</t>
+  </si>
+  <si>
+    <t>98983.80</t>
+  </si>
+  <si>
+    <t>222941.72</t>
+  </si>
+  <si>
+    <t>192081.69</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>3084.00</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>19291.60</t>
+  </si>
+  <si>
+    <t>148562.96</t>
+  </si>
+  <si>
+    <t>11239.00</t>
+  </si>
+  <si>
+    <t>84007.16</t>
+  </si>
+  <si>
+    <t>53275.00</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>20960.00</t>
+  </si>
+  <si>
+    <t>42000.32</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>6880.00</t>
+  </si>
+  <si>
+    <t>1367.98</t>
+  </si>
+  <si>
+    <t>296891.10</t>
+  </si>
+  <si>
+    <t>1020.22</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>407.00</t>
+  </si>
+  <si>
+    <t>403148.47</t>
+  </si>
+  <si>
+    <t>333254.90</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>25917.66</t>
+  </si>
+  <si>
+    <t>236100.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>684400.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>341204.96</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>1998716.51</t>
+  </si>
+  <si>
+    <t>13325.00</t>
+  </si>
+  <si>
+    <t>7452.14</t>
+  </si>
+  <si>
+    <t>1366.25</t>
+  </si>
+  <si>
+    <t>22343.00</t>
+  </si>
+  <si>
+    <t>97881.53</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>16205.86</t>
+  </si>
+  <si>
+    <t>312.20</t>
+  </si>
+  <si>
+    <t>575.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>12971.74</t>
+  </si>
+  <si>
+    <t>2376.60</t>
+  </si>
+  <si>
+    <t>958.00</t>
+  </si>
+  <si>
+    <t>3401.08</t>
+  </si>
+  <si>
+    <t>9659.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>10300.00</t>
+  </si>
+  <si>
+    <t>3435.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>14182.40</t>
+  </si>
+  <si>
+    <t>3529.75</t>
+  </si>
+  <si>
+    <t>9611.10</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>1442.72</t>
+  </si>
+  <si>
+    <t>3578.67</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>110927.00</t>
+  </si>
+  <si>
+    <t>19515.53</t>
+  </si>
+  <si>
+    <t>48100.00</t>
+  </si>
+  <si>
+    <t>35600.00</t>
+  </si>
+  <si>
+    <t>60400.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>87500.00</t>
+  </si>
+  <si>
+    <t>4527.15</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>5358.46</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12535.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>40260.00</t>
+  </si>
+  <si>
+    <t>151500.00</t>
+  </si>
+  <si>
+    <t>22300.00</t>
+  </si>
+  <si>
+    <t>4480.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>45216.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>4520.00</t>
+  </si>
+  <si>
+    <t>6321.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>23.04</t>
+  </si>
+  <si>
+    <t>31652.08</t>
+  </si>
+  <si>
+    <t>284.83</t>
+  </si>
+  <si>
+    <t>39587.19</t>
+  </si>
+  <si>
+    <t>23500.46</t>
+  </si>
+  <si>
+    <t>215.06</t>
+  </si>
+  <si>
+    <t>849.00</t>
+  </si>
+  <si>
+    <t>5026.02</t>
+  </si>
+  <si>
+    <t>17405.00</t>
+  </si>
+  <si>
+    <t>13999.00</t>
+  </si>
+  <si>
+    <t>1348.50</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>2769.00</t>
+  </si>
+  <si>
+    <t>8220.00</t>
+  </si>
+  <si>
+    <t>12129.00</t>
+  </si>
+  <si>
+    <t>10395.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>73584.00</t>
+  </si>
+  <si>
+    <t>15673.00</t>
+  </si>
+  <si>
+    <t>95211.92</t>
+  </si>
+  <si>
+    <t>2199.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>13569.96</t>
+  </si>
+  <si>
+    <t>1491.70</t>
+  </si>
+  <si>
+    <t>68685.00</t>
+  </si>
+  <si>
+    <t>1677.50</t>
+  </si>
+  <si>
+    <t>4160.00</t>
+  </si>
+  <si>
+    <t>23552.00</t>
+  </si>
+  <si>
+    <t>14080.00</t>
+  </si>
+  <si>
+    <t>69641.19</t>
+  </si>
+  <si>
+    <t>1810.40</t>
+  </si>
+  <si>
+    <t>325184.00</t>
+  </si>
+  <si>
+    <t>58700.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>15800.00</t>
+  </si>
+  <si>
+    <t>9368.00</t>
+  </si>
+  <si>
+    <t>126280.00</t>
+  </si>
+  <si>
+    <t>10848.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>92500.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>99900.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>18811.49</t>
+  </si>
+  <si>
+    <t>20126.00</t>
+  </si>
+  <si>
+    <t>4387.21</t>
+  </si>
+  <si>
+    <t>144890.00</t>
+  </si>
+  <si>
+    <t>8245.00</t>
+  </si>
+  <si>
+    <t>552.64</t>
+  </si>
+  <si>
+    <t>1380.50</t>
+  </si>
+  <si>
+    <t>1191.28</t>
+  </si>
+  <si>
+    <t>12485.00</t>
+  </si>
+  <si>
+    <t>35805.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>113875.55</t>
+  </si>
+  <si>
+    <t>4810.00</t>
+  </si>
+  <si>
+    <t>37300.00</t>
+  </si>
+  <si>
+    <t>57500.00</t>
+  </si>
+  <si>
+    <t>25800.00</t>
+  </si>
+  <si>
+    <t>55686.30</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>8900.00</t>
+  </si>
+  <si>
+    <t>2527.24</t>
+  </si>
+  <si>
+    <t>3030.02</t>
+  </si>
+  <si>
+    <t>50390.00</t>
+  </si>
+  <si>
+    <t>21100.00</t>
+  </si>
+  <si>
+    <t>879.96</t>
+  </si>
+  <si>
+    <t>1510.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>13560.00</t>
+  </si>
+  <si>
+    <t>31160.17</t>
+  </si>
+  <si>
+    <t>23270.00</t>
+  </si>
+  <si>
+    <t>4890.00</t>
+  </si>
+  <si>
+    <t>3006.02</t>
+  </si>
+  <si>
+    <t>2871.00</t>
+  </si>
+  <si>
+    <t>2147.28</t>
+  </si>
+  <si>
+    <t>857.80</t>
+  </si>
+  <si>
+    <t>372680.00</t>
+  </si>
+  <si>
+    <t>1019.96</t>
+  </si>
+  <si>
+    <t>569.77</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>33936.27</t>
+  </si>
+  <si>
+    <t>10817.93</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>79500.00</t>
+  </si>
+  <si>
+    <t>42831.00</t>
+  </si>
+  <si>
+    <t>6024925.03</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>111800.00</t>
+  </si>
+  <si>
+    <t>61180.00</t>
+  </si>
+  <si>
+    <t>114800.00</t>
+  </si>
+  <si>
+    <t>70889.00</t>
+  </si>
+  <si>
+    <t>3965000.00</t>
+  </si>
+  <si>
+    <t>241000.00</t>
+  </si>
+  <si>
+    <t>296700.00</t>
+  </si>
+  <si>
+    <t>245950.00</t>
+  </si>
+  <si>
+    <t>451000.00</t>
+  </si>
+  <si>
+    <t>573450.00</t>
+  </si>
+  <si>
+    <t>513000.00</t>
+  </si>
+  <si>
+    <t>306700.00</t>
+  </si>
+  <si>
+    <t>482000.00</t>
+  </si>
+  <si>
+    <t>419200.00</t>
+  </si>
+  <si>
+    <t>452200.00</t>
+  </si>
+  <si>
+    <t>697450.00</t>
+  </si>
+  <si>
+    <t>739100.00</t>
+  </si>
+  <si>
+    <t>247350.00</t>
+  </si>
+  <si>
+    <t>205702.00</t>
+  </si>
+  <si>
+    <t>763049.41</t>
+  </si>
+  <si>
+    <t>1534876.54</t>
+  </si>
+  <si>
+    <t>459000.00</t>
+  </si>
+  <si>
+    <t>106590.00</t>
+  </si>
+  <si>
+    <t>2163489.78</t>
+  </si>
+  <si>
+    <t>1399250.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>176500.00</t>
+  </si>
+  <si>
+    <t>5917.94</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>1090.00</t>
+  </si>
+  <si>
+    <t>318170.00</t>
+  </si>
+  <si>
+    <t>335000.00</t>
   </si>
 </sst>
 </file>
